--- a/Code/Results/Cases/Case_1_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_195/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.13507606870913</v>
+        <v>20.86915842191171</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.852008152794202</v>
+        <v>9.927805132342959</v>
       </c>
       <c r="E2">
-        <v>14.84590557329077</v>
+        <v>16.42323057387616</v>
       </c>
       <c r="F2">
-        <v>18.05525891541827</v>
+        <v>31.71156053560778</v>
       </c>
       <c r="G2">
-        <v>2.064829343948034</v>
+        <v>3.646490667291693</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.789625175670251</v>
+        <v>11.65263026665763</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.26740985213301</v>
+        <v>13.32202308200447</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.92731484788294</v>
+        <v>24.00310828893458</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.63684052162778</v>
+        <v>20.35127642421058</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.806401371504943</v>
+        <v>9.936810372956389</v>
       </c>
       <c r="E3">
-        <v>14.41576613764213</v>
+        <v>16.332991680591</v>
       </c>
       <c r="F3">
-        <v>18.12670378136862</v>
+        <v>31.94508745417136</v>
       </c>
       <c r="G3">
-        <v>2.071953628448018</v>
+        <v>3.649161647005876</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.553357568590329</v>
+        <v>11.61126050081273</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.14437876046974</v>
+        <v>12.85844269249691</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.75358462814413</v>
+        <v>24.12866716332716</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.67030159129435</v>
+        <v>20.02719297182967</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.780501621458014</v>
+        <v>9.943590200616068</v>
       </c>
       <c r="E4">
-        <v>14.15020704902872</v>
+        <v>16.27987198549344</v>
       </c>
       <c r="F4">
-        <v>18.21216971159969</v>
+        <v>32.09993390950008</v>
       </c>
       <c r="G4">
-        <v>2.076448693247399</v>
+        <v>3.650887753069605</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.408623332634134</v>
+        <v>11.58738772418788</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.41625502626334</v>
+        <v>12.56421066642103</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.67385279333377</v>
+        <v>24.21409645666618</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.26479687458348</v>
+        <v>19.89375442074952</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.770479737422506</v>
+        <v>9.946668593510459</v>
       </c>
       <c r="E5">
-        <v>14.04175941668761</v>
+        <v>16.25881885471758</v>
       </c>
       <c r="F5">
-        <v>18.25677440247593</v>
+        <v>32.16590255813965</v>
       </c>
       <c r="G5">
-        <v>2.078311981211637</v>
+        <v>3.651612882755415</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.349788888374748</v>
+        <v>11.57805103455095</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.10981634648998</v>
+        <v>12.44203621937919</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.64786244981172</v>
+        <v>24.25099332752523</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.19676407519483</v>
+        <v>19.87151911505729</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.768847870493613</v>
+        <v>9.947198848443719</v>
       </c>
       <c r="E6">
-        <v>14.02374200884228</v>
+        <v>16.25535937327418</v>
       </c>
       <c r="F6">
-        <v>18.26475145342758</v>
+        <v>32.1770293772646</v>
       </c>
       <c r="G6">
-        <v>2.078623314546098</v>
+        <v>3.651734604430141</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.340030156864593</v>
+        <v>11.57652454742365</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.0583449054587</v>
+        <v>12.42161635493731</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.64393091003033</v>
+        <v>24.25724551392323</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.66487976028891</v>
+        <v>20.02539870647048</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.780364302299368</v>
+        <v>9.943630437805792</v>
       </c>
       <c r="E7">
-        <v>14.14874523247028</v>
+        <v>16.2795856284632</v>
       </c>
       <c r="F7">
-        <v>18.21273258551292</v>
+        <v>32.10081199429578</v>
       </c>
       <c r="G7">
-        <v>2.076473693127991</v>
+        <v>3.65089744435166</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.407829195818627</v>
+        <v>11.58726021108838</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.41216167000588</v>
+        <v>12.56257198536575</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.67347633684582</v>
+        <v>24.21458564027725</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.62820013384741</v>
+        <v>20.69195373677234</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.835848749507709</v>
+        <v>9.930651246822944</v>
       </c>
       <c r="E8">
-        <v>14.69797245106026</v>
+        <v>16.391652704011</v>
       </c>
       <c r="F8">
-        <v>18.070849973636</v>
+        <v>31.78969347685013</v>
       </c>
       <c r="G8">
-        <v>2.067261458428561</v>
+        <v>3.64739379250754</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.708126411215019</v>
+        <v>11.63805323313779</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.88817794137361</v>
+        <v>13.16425048537036</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.86166603037298</v>
+        <v>24.04466357304409</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10656178464388</v>
+        <v>21.94399522605746</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.961170880739845</v>
+        <v>9.915073166525755</v>
       </c>
       <c r="E9">
-        <v>15.7581421583505</v>
+        <v>16.62872802938846</v>
       </c>
       <c r="F9">
-        <v>18.15251751937307</v>
+        <v>31.2711657460739</v>
       </c>
       <c r="G9">
-        <v>2.050098083393779</v>
+        <v>3.641203060151174</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.2971768570597</v>
+        <v>11.74945128019825</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.47827230983275</v>
+        <v>14.26263648580427</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.45509218284346</v>
+        <v>23.77812868559212</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.43558432016781</v>
+        <v>22.82208904387286</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.063087563344174</v>
+        <v>9.909580963460767</v>
       </c>
       <c r="E10">
-        <v>16.52052454280043</v>
+        <v>16.81230357745236</v>
       </c>
       <c r="F10">
-        <v>18.47042747655286</v>
+        <v>30.94692491898685</v>
       </c>
       <c r="G10">
-        <v>2.0379532920792</v>
+        <v>3.63706452309414</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.72710002178689</v>
+        <v>11.83801982249923</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.19895956947929</v>
+        <v>15.01366249309113</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.04013156970315</v>
+        <v>23.6236840847175</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.44653000243174</v>
+        <v>23.21095275685897</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.1115419017656</v>
+        <v>9.908360148171374</v>
       </c>
       <c r="E11">
-        <v>16.86271572893694</v>
+        <v>16.89760112521165</v>
       </c>
       <c r="F11">
-        <v>18.67835078620535</v>
+        <v>30.81193299229924</v>
       </c>
       <c r="G11">
-        <v>2.032508658787</v>
+        <v>3.635269775248225</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.92155866253617</v>
+        <v>11.8796675891556</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.94309616948669</v>
+        <v>15.34209737215308</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.34066082110668</v>
+        <v>23.56255894160656</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.82244708587998</v>
+        <v>23.35656910911404</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.130187209418539</v>
+        <v>9.908080242109472</v>
       </c>
       <c r="E12">
-        <v>16.99156116564355</v>
+        <v>16.93013610153041</v>
       </c>
       <c r="F12">
-        <v>18.76670490101526</v>
+        <v>30.76263035105858</v>
       </c>
       <c r="G12">
-        <v>2.03045655153835</v>
+        <v>3.634602713434545</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.995001062932</v>
+        <v>11.89562450013497</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.21941603332871</v>
+        <v>15.46449248790118</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.45954020692561</v>
+        <v>23.54073766232912</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.74179236980034</v>
+        <v>23.3252826036442</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.126158473529058</v>
+        <v>9.908132434664449</v>
       </c>
       <c r="E13">
-        <v>16.96384565340807</v>
+        <v>16.92311903660751</v>
       </c>
       <c r="F13">
-        <v>18.74724102548759</v>
+        <v>30.77316751607986</v>
       </c>
       <c r="G13">
-        <v>2.030898111526345</v>
+        <v>3.634745819156432</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.97919306704467</v>
+        <v>11.89217978187581</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.16014738428855</v>
+        <v>15.4382215053186</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.43370978159484</v>
+        <v>23.54537812267493</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.47759483891657</v>
+        <v>23.22296615469427</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.113069938062831</v>
+        <v>9.908333472529135</v>
       </c>
       <c r="E14">
-        <v>16.87333100315621</v>
+        <v>16.90027322420151</v>
       </c>
       <c r="F14">
-        <v>18.68542426578065</v>
+        <v>30.80784034108094</v>
       </c>
       <c r="G14">
-        <v>2.032339648416166</v>
+        <v>3.635214644137251</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.92760489036746</v>
+        <v>11.88097670455544</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.9659382542608</v>
+        <v>15.3522068968918</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.35033869635474</v>
+        <v>23.56073705823162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.31486939035343</v>
+        <v>23.16007781075184</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.105091356909988</v>
+        <v>9.908480326418159</v>
       </c>
       <c r="E15">
-        <v>16.81779060532907</v>
+        <v>16.88630939120002</v>
       </c>
       <c r="F15">
-        <v>18.64882638873032</v>
+        <v>30.82931544798359</v>
       </c>
       <c r="G15">
-        <v>2.033223830892102</v>
+        <v>3.635503447958974</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.8959793643174</v>
+        <v>11.87413841118455</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.84627004205786</v>
+        <v>15.29926103037098</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.29993603475494</v>
+        <v>23.57031782456217</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.36854573606293</v>
+        <v>22.79645275566948</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.059962691917403</v>
+        <v>9.909686342855283</v>
       </c>
       <c r="E16">
-        <v>16.49806221613164</v>
+        <v>16.80676324711184</v>
       </c>
       <c r="F16">
-        <v>18.45815861714579</v>
+        <v>30.95600011098164</v>
       </c>
       <c r="G16">
-        <v>2.038310568206792</v>
+        <v>3.6371835768428</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.71436613813469</v>
+        <v>11.83532456034602</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.1495584698723</v>
+        <v>14.99192591006861</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.02119486044688</v>
+        <v>23.62786358018202</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.77562058713704</v>
+        <v>22.5705838052025</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.032810456111219</v>
+        <v>9.910752490799496</v>
       </c>
       <c r="E17">
-        <v>16.30068112612545</v>
+        <v>16.75840632572092</v>
       </c>
       <c r="F17">
-        <v>18.35779168020846</v>
+        <v>31.03693266129103</v>
       </c>
       <c r="G17">
-        <v>2.04145035987056</v>
+        <v>3.638236744086415</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.60263984645543</v>
+        <v>11.81185458433843</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.71231563080849</v>
+        <v>14.79994462558052</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.85910333468816</v>
+        <v>23.66551390680601</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43001125286803</v>
+        <v>22.43967986169726</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.01739033748352</v>
+        <v>9.91148604835033</v>
       </c>
       <c r="E18">
-        <v>16.18672117496142</v>
+        <v>16.73076237217673</v>
       </c>
       <c r="F18">
-        <v>18.30599510593933</v>
+        <v>31.08465907182226</v>
       </c>
       <c r="G18">
-        <v>2.043263944714868</v>
+        <v>3.638850775054409</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.53827446507985</v>
+        <v>11.79848362480374</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.45718509920816</v>
+        <v>14.68828251028451</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.76910335919462</v>
+        <v>23.68802825928355</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31220630639763</v>
+        <v>22.39519167679131</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.012203339460586</v>
+        <v>9.911755126205065</v>
       </c>
       <c r="E19">
-        <v>16.14806455293879</v>
+        <v>16.72143242626539</v>
       </c>
       <c r="F19">
-        <v>18.28945967263014</v>
+        <v>31.10101989264142</v>
       </c>
       <c r="G19">
-        <v>2.043879362883434</v>
+        <v>3.639060099078623</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.51646486331134</v>
+        <v>11.79397877492096</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.37017470336362</v>
+        <v>14.65026523514092</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.739181533645</v>
+        <v>23.69579836703318</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.83921145548807</v>
+        <v>22.59473128199386</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.035680487010546</v>
+        <v>9.910626552543516</v>
       </c>
       <c r="E20">
-        <v>16.32173790194155</v>
+        <v>16.76353660457169</v>
       </c>
       <c r="F20">
-        <v>18.36785804240033</v>
+        <v>31.02819540080565</v>
       </c>
       <c r="G20">
-        <v>2.041115343869236</v>
+        <v>3.638123776492304</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.61454427174354</v>
+        <v>11.81433978704905</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.75923702658462</v>
+        <v>14.82051023588282</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.87602288119314</v>
+        <v>23.66141698448043</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.55538279609508</v>
+        <v>23.25306430023911</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.116906336350751</v>
+        <v>9.908269483627443</v>
       </c>
       <c r="E21">
-        <v>16.89993778750519</v>
+        <v>16.90697740513833</v>
       </c>
       <c r="F21">
-        <v>18.70331655052558</v>
+        <v>30.79760666984506</v>
       </c>
       <c r="G21">
-        <v>2.031915987680162</v>
+        <v>3.635076598269341</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.94276311613265</v>
+        <v>11.88426235312073</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.02312988218811</v>
+        <v>15.37752566093082</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.37468810764247</v>
+        <v>23.55618969739877</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.63679477926895</v>
+        <v>23.67372942442434</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.171719983967757</v>
+        <v>9.907791465066062</v>
       </c>
       <c r="E22">
-        <v>17.27351844508417</v>
+        <v>17.00208139046217</v>
       </c>
       <c r="F22">
-        <v>18.97880956196171</v>
+        <v>30.65749612603216</v>
       </c>
       <c r="G22">
-        <v>2.025958974321189</v>
+        <v>3.633158328537294</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.15612643028136</v>
+        <v>11.93103931442992</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.81732781712858</v>
+        <v>15.7300209562626</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.73022813450927</v>
+        <v>23.49514895273578</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.06327388105728</v>
+        <v>23.4501259849907</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.142308041163813</v>
+        <v>9.907949827617459</v>
       </c>
       <c r="E23">
-        <v>17.07454505910995</v>
+        <v>16.95120590685054</v>
       </c>
       <c r="F23">
-        <v>18.82647439537386</v>
+        <v>30.73130073638579</v>
       </c>
       <c r="G23">
-        <v>2.029133945589182</v>
+        <v>3.634175466574864</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.04236484901253</v>
+        <v>11.9059780406051</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.39633163978234</v>
+        <v>15.54296678392881</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.53771942947682</v>
+        <v>23.52701617319286</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.81047675829186</v>
+        <v>22.58381746579538</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.034382353715704</v>
+        <v>9.910683113416379</v>
       </c>
       <c r="E24">
-        <v>16.31221963230157</v>
+        <v>16.76121671446108</v>
       </c>
       <c r="F24">
-        <v>18.36328868496787</v>
+        <v>31.03214178819595</v>
       </c>
       <c r="G24">
-        <v>2.041266778061778</v>
+        <v>3.638174822499168</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.60916269091392</v>
+        <v>11.81321584539383</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.73803556203883</v>
+        <v>14.81121653421597</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.86836363243251</v>
+        <v>23.66326649800766</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20547289280583</v>
+        <v>21.61206772960554</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.925522680800386</v>
+        <v>9.918237064953768</v>
       </c>
       <c r="E25">
-        <v>15.47383795046632</v>
+        <v>16.56285698339748</v>
       </c>
       <c r="F25">
-        <v>18.08777851010424</v>
+        <v>31.40154606130078</v>
       </c>
       <c r="G25">
-        <v>2.054653019611561</v>
+        <v>3.64280551490047</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.13813112938387</v>
+        <v>11.71809950725734</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.80986910551165</v>
+        <v>13.97491692543571</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.26914948277099</v>
+        <v>23.84301862151885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_195/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.86915842191171</v>
+        <v>24.13507606870916</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.927805132342959</v>
+        <v>6.852008152794202</v>
       </c>
       <c r="E2">
-        <v>16.42323057387616</v>
+        <v>14.84590557329077</v>
       </c>
       <c r="F2">
-        <v>31.71156053560778</v>
+        <v>18.0552589154183</v>
       </c>
       <c r="G2">
-        <v>3.646490667291693</v>
+        <v>2.064829343948168</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.65263026665763</v>
+        <v>9.789625175670281</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.32202308200447</v>
+        <v>17.26740985213299</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.00310828893458</v>
+        <v>14.92731484788296</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.35127642421058</v>
+        <v>22.63684052162776</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.936810372956389</v>
+        <v>6.806401371504871</v>
       </c>
       <c r="E3">
-        <v>16.332991680591</v>
+        <v>14.41576613764204</v>
       </c>
       <c r="F3">
-        <v>31.94508745417136</v>
+        <v>18.12670378136856</v>
       </c>
       <c r="G3">
-        <v>3.649161647005876</v>
+        <v>2.071953628447884</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.61126050081273</v>
+        <v>9.553357568590284</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.85844269249691</v>
+        <v>16.14437876046976</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.12866716332716</v>
+        <v>14.75358462814412</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.02719297182967</v>
+        <v>21.67030159129439</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.943590200616068</v>
+        <v>6.780501621458143</v>
       </c>
       <c r="E4">
-        <v>16.27987198549344</v>
+        <v>14.15020704902872</v>
       </c>
       <c r="F4">
-        <v>32.09993390950008</v>
+        <v>18.21216971159988</v>
       </c>
       <c r="G4">
-        <v>3.650887753069605</v>
+        <v>2.076448693247531</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.58738772418788</v>
+        <v>9.408623332634134</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.56421066642103</v>
+        <v>15.4162550262633</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.21409645666618</v>
+        <v>14.67385279333385</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.89375442074952</v>
+        <v>21.26479687458347</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.946668593510459</v>
+        <v>6.770479737422486</v>
       </c>
       <c r="E5">
-        <v>16.25881885471758</v>
+        <v>14.04175941668767</v>
       </c>
       <c r="F5">
-        <v>32.16590255813965</v>
+        <v>18.25677440247612</v>
       </c>
       <c r="G5">
-        <v>3.651612882755415</v>
+        <v>2.078311981211769</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.57805103455095</v>
+        <v>9.349788888374775</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.44203621937919</v>
+        <v>15.10981634649001</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.25099332752523</v>
+        <v>14.64786244981183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.87151911505729</v>
+        <v>21.19676407519483</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.947198848443719</v>
+        <v>6.768847870493724</v>
       </c>
       <c r="E6">
-        <v>16.25535937327418</v>
+        <v>14.02374200884238</v>
       </c>
       <c r="F6">
-        <v>32.1770293772646</v>
+        <v>18.26475145342776</v>
       </c>
       <c r="G6">
-        <v>3.651734604430141</v>
+        <v>2.078623314546098</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.57652454742365</v>
+        <v>9.340030156864593</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.42161635493731</v>
+        <v>15.05834490545865</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.25724551392323</v>
+        <v>14.64393091003043</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.02539870647048</v>
+        <v>21.66487976028889</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.943630437805792</v>
+        <v>6.780364302299166</v>
       </c>
       <c r="E7">
-        <v>16.2795856284632</v>
+        <v>14.14874523247018</v>
       </c>
       <c r="F7">
-        <v>32.10081199429578</v>
+        <v>18.21273258551304</v>
       </c>
       <c r="G7">
-        <v>3.65089744435166</v>
+        <v>2.076473693127724</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.58726021108838</v>
+        <v>9.40782919581866</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.56257198536575</v>
+        <v>15.41216167000579</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.21458564027725</v>
+        <v>14.67347633684598</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.69195373677234</v>
+        <v>23.62820013384741</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.930651246822944</v>
+        <v>6.835848749507699</v>
       </c>
       <c r="E8">
-        <v>16.391652704011</v>
+        <v>14.6979724510603</v>
       </c>
       <c r="F8">
-        <v>31.78969347685013</v>
+        <v>18.07084997363598</v>
       </c>
       <c r="G8">
-        <v>3.64739379250754</v>
+        <v>2.067261458428697</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.63805323313779</v>
+        <v>9.708126411215035</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.16425048537036</v>
+        <v>16.88817794137363</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.04466357304409</v>
+        <v>14.86166603037296</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.94399522605746</v>
+        <v>27.10656178464392</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.915073166525755</v>
+        <v>6.961170880739799</v>
       </c>
       <c r="E9">
-        <v>16.62872802938846</v>
+        <v>15.75814215835038</v>
       </c>
       <c r="F9">
-        <v>31.2711657460739</v>
+        <v>18.15251751937291</v>
       </c>
       <c r="G9">
-        <v>3.641203060151174</v>
+        <v>2.050098083394047</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.74945128019825</v>
+        <v>10.29717685705968</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.26263648580427</v>
+        <v>19.47827230983275</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.77812868559212</v>
+        <v>15.4550921828434</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.82208904387286</v>
+        <v>29.4355843201678</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.909580963460767</v>
+        <v>7.063087563344052</v>
       </c>
       <c r="E10">
-        <v>16.81230357745236</v>
+        <v>16.52052454280039</v>
       </c>
       <c r="F10">
-        <v>30.94692491898685</v>
+        <v>18.47042747655279</v>
       </c>
       <c r="G10">
-        <v>3.63706452309414</v>
+        <v>2.0379532920792</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.83801982249923</v>
+        <v>10.72710002178688</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.01366249309113</v>
+        <v>21.19895956947929</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.6236840847175</v>
+        <v>16.04013156970311</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.21095275685897</v>
+        <v>30.4465300024317</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.908360148171374</v>
+        <v>7.111541901765533</v>
       </c>
       <c r="E11">
-        <v>16.89760112521165</v>
+        <v>16.86271572893686</v>
       </c>
       <c r="F11">
-        <v>30.81193299229924</v>
+        <v>18.67835078620546</v>
       </c>
       <c r="G11">
-        <v>3.635269775248225</v>
+        <v>2.032508658786867</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.8796675891556</v>
+        <v>10.92155866253616</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.34209737215308</v>
+        <v>21.94309616948665</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.56255894160656</v>
+        <v>16.34066082110678</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.35656910911404</v>
+        <v>30.82244708587997</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.908080242109472</v>
+        <v>7.130187209418544</v>
       </c>
       <c r="E12">
-        <v>16.93013610153041</v>
+        <v>16.99156116564354</v>
       </c>
       <c r="F12">
-        <v>30.76263035105858</v>
+        <v>18.7667049010153</v>
       </c>
       <c r="G12">
-        <v>3.634602713434545</v>
+        <v>2.030456551538484</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.89562450013497</v>
+        <v>10.99500106293196</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.46449248790118</v>
+        <v>22.2194160333287</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.54073766232912</v>
+        <v>16.45954020692562</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.3252826036442</v>
+        <v>30.74179236980034</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.908132434664449</v>
+        <v>7.126158473528997</v>
       </c>
       <c r="E13">
-        <v>16.92311903660751</v>
+        <v>16.96384565340804</v>
       </c>
       <c r="F13">
-        <v>30.77316751607986</v>
+        <v>18.74724102548756</v>
       </c>
       <c r="G13">
-        <v>3.634745819156432</v>
+        <v>2.030898111526211</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.89217978187581</v>
+        <v>10.97919306704467</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.4382215053186</v>
+        <v>22.16014738428857</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.54537812267493</v>
+        <v>16.43370978159482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.22296615469427</v>
+        <v>30.47759483891657</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.908333472529135</v>
+        <v>7.113069938062658</v>
       </c>
       <c r="E14">
-        <v>16.90027322420151</v>
+        <v>16.87333100315616</v>
       </c>
       <c r="F14">
-        <v>30.80784034108094</v>
+        <v>18.68542426578058</v>
       </c>
       <c r="G14">
-        <v>3.635214644137251</v>
+        <v>2.0323396484163</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.88097670455544</v>
+        <v>10.92760489036747</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.3522068968918</v>
+        <v>21.96593825426082</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.56073705823162</v>
+        <v>16.35033869635472</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.16007781075184</v>
+        <v>30.31486939035337</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.908480326418159</v>
+        <v>7.105091356910041</v>
       </c>
       <c r="E15">
-        <v>16.88630939120002</v>
+        <v>16.81779060532904</v>
       </c>
       <c r="F15">
-        <v>30.82931544798359</v>
+        <v>18.6488263887303</v>
       </c>
       <c r="G15">
-        <v>3.635503447958974</v>
+        <v>2.0332238308921</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.87413841118455</v>
+        <v>10.89597936431739</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.29926103037098</v>
+        <v>21.84627004205787</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.57031782456217</v>
+        <v>16.29993603475491</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.79645275566948</v>
+        <v>29.36854573606295</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.909686342855283</v>
+        <v>7.059962691917514</v>
       </c>
       <c r="E16">
-        <v>16.80676324711184</v>
+        <v>16.49806221613158</v>
       </c>
       <c r="F16">
-        <v>30.95600011098164</v>
+        <v>18.45815861714591</v>
       </c>
       <c r="G16">
-        <v>3.6371835768428</v>
+        <v>2.038310568206658</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.83532456034602</v>
+        <v>10.71436613813465</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.99192591006861</v>
+        <v>21.14955846987233</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.62786358018202</v>
+        <v>16.02119486044694</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.5705838052025</v>
+        <v>28.77562058713702</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.910752490799496</v>
+        <v>7.032810456111151</v>
       </c>
       <c r="E17">
-        <v>16.75840632572092</v>
+        <v>16.30068112612538</v>
       </c>
       <c r="F17">
-        <v>31.03693266129103</v>
+        <v>18.35779168020845</v>
       </c>
       <c r="G17">
-        <v>3.638236744086415</v>
+        <v>2.041450359870562</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.81185458433843</v>
+        <v>10.60263984645537</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.79994462558052</v>
+        <v>20.71231563080845</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.66551390680601</v>
+        <v>15.85910333468815</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.43967986169726</v>
+        <v>28.43001125286805</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.91148604835033</v>
+        <v>7.017390337483563</v>
       </c>
       <c r="E18">
-        <v>16.73076237217673</v>
+        <v>16.18672117496141</v>
       </c>
       <c r="F18">
-        <v>31.08465907182226</v>
+        <v>18.30599510593933</v>
       </c>
       <c r="G18">
-        <v>3.638850775054409</v>
+        <v>2.043263944714734</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.79848362480374</v>
+        <v>10.53827446507984</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.68828251028451</v>
+        <v>20.45718509920814</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.68802825928355</v>
+        <v>15.76910335919462</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.39519167679131</v>
+        <v>28.3122063063976</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.911755126205065</v>
+        <v>7.01220333946048</v>
       </c>
       <c r="E19">
-        <v>16.72143242626539</v>
+        <v>16.14806455293877</v>
       </c>
       <c r="F19">
-        <v>31.10101989264142</v>
+        <v>18.28945967263007</v>
       </c>
       <c r="G19">
-        <v>3.639060099078623</v>
+        <v>2.0438793628837</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.79397877492096</v>
+        <v>10.51646486331129</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.65026523514092</v>
+        <v>20.37017470336367</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.69579836703318</v>
+        <v>15.73918153364499</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.59473128199386</v>
+        <v>28.83921145548808</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.910626552543516</v>
+        <v>7.035680487010598</v>
       </c>
       <c r="E20">
-        <v>16.76353660457169</v>
+        <v>16.32173790194163</v>
       </c>
       <c r="F20">
-        <v>31.02819540080565</v>
+        <v>18.36785804240039</v>
       </c>
       <c r="G20">
-        <v>3.638123776492304</v>
+        <v>2.041115343869504</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.81433978704905</v>
+        <v>10.61454427174358</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.82051023588282</v>
+        <v>20.75923702658458</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.66141698448043</v>
+        <v>15.87602288119316</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.25306430023911</v>
+        <v>30.55538279609506</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.908269483627443</v>
+        <v>7.116906336350803</v>
       </c>
       <c r="E21">
-        <v>16.90697740513833</v>
+        <v>16.89993778750521</v>
       </c>
       <c r="F21">
-        <v>30.79760666984506</v>
+        <v>18.70331655052562</v>
       </c>
       <c r="G21">
-        <v>3.635076598269341</v>
+        <v>2.031915987680296</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.88426235312073</v>
+        <v>10.94276311613265</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.37752566093082</v>
+        <v>22.02312988218809</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.55618969739877</v>
+        <v>16.37468810764248</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.67372942442434</v>
+        <v>31.63679477926901</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.907791465066062</v>
+        <v>7.171719983967678</v>
       </c>
       <c r="E22">
-        <v>17.00208139046217</v>
+        <v>17.27351844508418</v>
       </c>
       <c r="F22">
-        <v>30.65749612603216</v>
+        <v>18.97880956196158</v>
       </c>
       <c r="G22">
-        <v>3.633158328537294</v>
+        <v>2.02595897432092</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.93103931442992</v>
+        <v>11.15612643028143</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.7300209562626</v>
+        <v>22.81732781712863</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.49514895273578</v>
+        <v>16.73022813450917</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.4501259849907</v>
+        <v>31.06327388105734</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.907949827617459</v>
+        <v>7.142308041163822</v>
       </c>
       <c r="E23">
-        <v>16.95120590685054</v>
+        <v>17.07454505910993</v>
       </c>
       <c r="F23">
-        <v>30.73130073638579</v>
+        <v>18.82647439537366</v>
       </c>
       <c r="G23">
-        <v>3.634175466574864</v>
+        <v>2.02913394558905</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.9059780406051</v>
+        <v>11.04236484901246</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.54296678392881</v>
+        <v>22.39633163978248</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.52701617319286</v>
+        <v>16.53771942947672</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.58381746579538</v>
+        <v>28.81047675829183</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.910683113416379</v>
+        <v>7.034382353715611</v>
       </c>
       <c r="E24">
-        <v>16.76121671446108</v>
+        <v>16.31221963230158</v>
       </c>
       <c r="F24">
-        <v>31.03214178819595</v>
+        <v>18.36328868496781</v>
       </c>
       <c r="G24">
-        <v>3.638174822499168</v>
+        <v>2.041266778061645</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.81321584539383</v>
+        <v>10.60916269091391</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.81121653421597</v>
+        <v>20.73803556203884</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.66326649800766</v>
+        <v>15.86836363243251</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.61206772960554</v>
+        <v>26.20547289280583</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.918237064953768</v>
+        <v>6.925522680800265</v>
       </c>
       <c r="E25">
-        <v>16.56285698339748</v>
+        <v>15.47383795046631</v>
       </c>
       <c r="F25">
-        <v>31.40154606130078</v>
+        <v>18.08777851010419</v>
       </c>
       <c r="G25">
-        <v>3.64280551490047</v>
+        <v>2.054653019611429</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.71809950725734</v>
+        <v>10.13813112938391</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.97491692543571</v>
+        <v>18.80986910551167</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.84301862151885</v>
+        <v>15.26914948277098</v>
       </c>
     </row>
   </sheetData>
